--- a/data_collection/naver.xlsx
+++ b/data_collection/naver.xlsx
@@ -448,72 +448,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3대 `국민주`는 삼전·카카오·현대차…코스닥은 `에코프로 형제`</t>
+          <t>트럼프 "멕시코 생산 中 자동차에 관세 100% 부과"…내가 지면 '피바다' 막말도</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://finance.naver.com/news/news_read.naver?mode=mainnews&amp;office_id=029&amp;article_id=0002860995</t>
+          <t>https://finance.naver.com/news/news_read.naver?mode=mainnews&amp;office_id=277&amp;article_id=0005393164</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>"AI 수혜론 과장됐다"…AMD 주가 '고평가' 지적</t>
+          <t>“나도 잘 몰라, 근데 이게 잘 나간대”…소문 듣고 ‘잡코인’ 베팅, 하락률 비트코인 10배</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://finance.naver.com/news/news_read.naver?mode=mainnews&amp;office_id=215&amp;article_id=0001152843</t>
+          <t>https://finance.naver.com/news/news_read.naver?mode=mainnews&amp;office_id=009&amp;article_id=0005273637</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>(영상)엔화와 미국채 투자를 동시에?..대박난 장기 미국채 ETF</t>
+          <t>“청년 도약? 코인만이 살길이야”…2030 적금·주식 빼서 비트코인 가즈아</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://finance.naver.com/news/news_read.naver?mode=mainnews&amp;office_id=018&amp;article_id=0005691956</t>
+          <t>https://finance.naver.com/news/news_read.naver?mode=mainnews&amp;office_id=009&amp;article_id=0005273635</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>"비트코인 6만 아래로 추락 가능성"...또 조정 경고</t>
+          <t>"손 떨려 못 사먹어요"…금사과 언제까지</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://finance.naver.com/news/news_read.naver?mode=mainnews&amp;office_id=215&amp;article_id=0001152826</t>
+          <t>https://finance.naver.com/news/news_read.naver?mode=mainnews&amp;office_id=057&amp;article_id=0001806274</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>'국제유가 4개월래 최고치' 소식에 조선주 강세[핫종목]</t>
+          <t>올해도 행동주의펀드 패배 이어지나… 저PBR株 `주춤`</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://finance.naver.com/news/news_read.naver?mode=mainnews&amp;office_id=421&amp;article_id=0007410228</t>
+          <t>https://finance.naver.com/news/news_read.naver?mode=mainnews&amp;office_id=029&amp;article_id=0002861530</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>은행株, ELS 배상 여파에도 상승세 탄 비결은?</t>
+          <t>“아 지난주에 팔았어야 했는데”…한국서 더 많이 떨어진 비트코인, 거품이었나</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://finance.naver.com/news/news_read.naver?mode=mainnews&amp;office_id=629&amp;article_id=0000273474</t>
+          <t>https://finance.naver.com/news/news_read.naver?mode=mainnews&amp;office_id=009&amp;article_id=0005273616</t>
         </is>
       </c>
     </row>
